--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE26E179-3FC1-43AF-AE4B-27BB25113B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA38C85-F9E3-490F-8257-2167F4AE7B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>169. Majority Element</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Arrays and Hashmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/majority-element/solutions/51613/o-n-time-o-1-space-fastest-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>To solve in Linear time and Constant space, calculate majority number n, then use a hashmap to count as we iterate. The optimal algorithms areMoore  Majority Vote algorithm, or sort and return middle element, or bit manipulation.</t>
   </si>
 </sst>
 </file>
@@ -71,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,6 +96,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,11 +119,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -386,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,14 +438,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3"/>
-      <c r="E2" s="2"/>
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="E3" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA38C85-F9E3-490F-8257-2167F4AE7B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EBDD4-412C-4177-A3AB-3B8A1D542844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Question</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>To solve in Linear time and Constant space, calculate majority number n, then use a hashmap to count as we iterate. The optimal algorithms areMoore  Majority Vote algorithm, or sort and return middle element, or bit manipulation.</t>
+  </si>
+  <si>
+    <t>392. Is Subsequence</t>
+  </si>
+  <si>
+    <t>Two Pointers</t>
+  </si>
+  <si>
+    <t>Use a for loop with an inner while loop. Fast and Slow pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/is-subsequence/solutions/87254/straight-forward-java-simple-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -86,18 +98,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -119,12 +125,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -409,7 +414,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +446,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -455,12 +460,26 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="E3" s="2"/>
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{F9C7DFFF-557E-4BC0-B1E8-F586E372FE27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EBDD4-412C-4177-A3AB-3B8A1D542844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86315B-1082-41AC-8160-A2436E2263EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Question</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Arrays and Hashmap</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://leetcode.com/problems/majority-element/solutions/51613/o-n-time-o-1-space-fastest-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
   <si>
@@ -67,6 +64,30 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/is-subsequence/solutions/87254/straight-forward-java-simple-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>289. Game of Life</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>383. Ransom Note</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>We use a hashmap, 1st pass store counts from magazine, 2nd pass read and decrement based on ransomNote. Char freq int arr is optimal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/ransom-note/solutions/1671552/1ms-100-easy-explanation-java-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -98,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -125,11 +152,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -411,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,36 +478,65 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F9C7DFFF-557E-4BC0-B1E8-F586E372FE27}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{DFCA1BC5-81D6-4C67-A4E2-F30C50932996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86315B-1082-41AC-8160-A2436E2263EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB7691B-80C0-432F-9F96-EBE3F20E523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Question</t>
   </si>
@@ -78,9 +89,6 @@
     <t>383. Ransom Note</t>
   </si>
   <si>
-    <t>HashMap</t>
-  </si>
-  <si>
     <t>Arrays</t>
   </si>
   <si>
@@ -88,6 +96,21 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/ransom-note/solutions/1671552/1ms-100-easy-explanation-java-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>228. Summary Ranges</t>
+  </si>
+  <si>
+    <t>Intervals</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/summary-ranges/solutions/1805391/concise-solution-in-0-n-with-approach-explained-in-detail/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Optimally, use i and j pointers with an inner while loop for the breakpoint.  1 pass and track the start and end of the previous range. Put the range into res when encountering a new range. Handle the remaining range after the loop.</t>
   </si>
 </sst>
 </file>
@@ -439,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -523,13 +546,30 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -537,6 +577,7 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F9C7DFFF-557E-4BC0-B1E8-F586E372FE27}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DFCA1BC5-81D6-4C67-A4E2-F30C50932996}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{51E1A3D0-2569-4387-B0FF-091881D280E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB7691B-80C0-432F-9F96-EBE3F20E523E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79712889-A79B-4F55-97F9-0E809CBE3303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Question</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Optimally, use i and j pointers with an inner while loop for the breakpoint.  1 pass and track the start and end of the previous range. Put the range into res when encountering a new range. Handle the remaining range after the loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/game-of-life/solutions/1520732/java-tc-o-mn-sc-o-1-optimal-in-place-infinite-board-solutions/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Work with a copy board, and then to copy all the result values from the copy back to the board individually. Setting board = res only changes the reference, not the original board. For the optimal follow-up solutions, use 2 bits to store 2 states, and for infinite board, use coordinates.</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +543,12 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -578,6 +590,7 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{F9C7DFFF-557E-4BC0-B1E8-F586E372FE27}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DFCA1BC5-81D6-4C67-A4E2-F30C50932996}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{51E1A3D0-2569-4387-B0FF-091881D280E4}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{F0F4FBAE-9F22-42CF-9042-371612539E01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79712889-A79B-4F55-97F9-0E809CBE3303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43342E-151A-4699-A0F9-16228A1F5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Question</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>Work with a copy board, and then to copy all the result values from the copy back to the board individually. Setting board = res only changes the reference, not the original board. For the optimal follow-up solutions, use 2 bits to store 2 states, and for infinite board, use coordinates.</t>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Use a helper function. The base case of both null or root null is true. The recursive solution involves a method of exhaustion where reaching both but not 1 null child is true. Each step must have, left = right, left.left = right.right, left,right = right.left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/symmetric-tree/solutions/33104/1ms-recursive-java-solution-easy-to-understand/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -468,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +596,23 @@
         <v>23</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -591,6 +620,7 @@
     <hyperlink ref="E5" r:id="rId3" xr:uid="{DFCA1BC5-81D6-4C67-A4E2-F30C50932996}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{51E1A3D0-2569-4387-B0FF-091881D280E4}"/>
     <hyperlink ref="E4" r:id="rId5" xr:uid="{F0F4FBAE-9F22-42CF-9042-371612539E01}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{4DB4E0EB-3FA6-4DAD-8447-9144487AC07E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B43342E-151A-4699-A0F9-16228A1F5B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39163B70-F098-4550-A3FA-2DC3B00720D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>Question</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/symmetric-tree/solutions/33104/1ms-recursive-java-solution-easy-to-understand/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>82. Remove Duplicates from Sorted List 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/solutions/28364/java-simple-and-clean-code-with-comment/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>While it can be solved with a HashMap, the optimal is to use 2 pointers. Slow to track the node before the duplicate nodes,fast to find the last node of duplicates. The crux is that fast uses node values to detect duplicates, while slow uses the node value of fast (i.e. if slow.next != fast then there are duplicates in the range). The key implementation details are to use the fast pointer to detect duplicates and let it remain as the last of theduplicates, slow detects duplicates by node reference, rather than the value.</t>
   </si>
 </sst>
 </file>
@@ -480,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +622,23 @@
         <v>30</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -621,6 +647,7 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{51E1A3D0-2569-4387-B0FF-091881D280E4}"/>
     <hyperlink ref="E4" r:id="rId5" xr:uid="{F0F4FBAE-9F22-42CF-9042-371612539E01}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{4DB4E0EB-3FA6-4DAD-8447-9144487AC07E}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{42FE07CF-7801-4118-ACF3-A522217316E3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39163B70-F098-4550-A3FA-2DC3B00720D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461A338-6FEA-4AD7-84C9-C33C858F1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Question</t>
   </si>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>While it can be solved with a HashMap, the optimal is to use 2 pointers. Slow to track the node before the duplicate nodes,fast to find the last node of duplicates. The crux is that fast uses node values to detect duplicates, while slow uses the node value of fast (i.e. if slow.next != fast then there are duplicates in the range). The key implementation details are to use the fast pointer to detect duplicates and let it remain as the last of theduplicates, slow detects duplicates by node reference, rather than the value.</t>
+  </si>
+  <si>
+    <t>67. Add Binary</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/add-binary/solutions/3183205/1ms-beats-100-full-explanation-append-reverse-c-java-python3/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>We need to use Stringbuilder (due to immutability). Return sb.reverse().toString() at the end. Handle carry and uneven string lengths. Get the ascii value with carry += a.charAt(i--) - '0'; and handle carry with sb.append(carry % 2); carry /= 2;</t>
   </si>
 </sst>
 </file>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +651,23 @@
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -648,6 +677,7 @@
     <hyperlink ref="E4" r:id="rId5" xr:uid="{F0F4FBAE-9F22-42CF-9042-371612539E01}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{4DB4E0EB-3FA6-4DAD-8447-9144487AC07E}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{42FE07CF-7801-4118-ACF3-A522217316E3}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{595D1D3E-CBB9-48B8-9181-B017086C5309}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E461A338-6FEA-4AD7-84C9-C33C858F1102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B509D3E-FF28-494C-9597-402A028591FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Question</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>We need to use Stringbuilder (due to immutability). Return sb.reverse().toString() at the end. Handle carry and uneven string lengths. Get the ascii value with carry += a.charAt(i--) - '0'; and handle carry with sb.append(carry % 2); carry /= 2;</t>
+  </si>
+  <si>
+    <t>108. Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/solutions/35220/my-accepted-java-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Use recursion and a helper function, using binary search principle of finding mid with low and high.</t>
   </si>
 </sst>
 </file>
@@ -501,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +677,23 @@
         <v>36</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -678,6 +704,7 @@
     <hyperlink ref="E7" r:id="rId6" xr:uid="{4DB4E0EB-3FA6-4DAD-8447-9144487AC07E}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{42FE07CF-7801-4118-ACF3-A522217316E3}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{595D1D3E-CBB9-48B8-9181-B017086C5309}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{057D83A8-3AF0-4D1C-A7EB-2D56EEF50066}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B509D3E-FF28-494C-9597-402A028591FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DD57C-F68F-48A2-8F08-4653A1D757B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>Use recursion and a helper function, using binary search principle of finding mid with low and high.</t>
+  </si>
+  <si>
+    <t>637. Average of Levels in Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/average-of-levels-in-binary-tree/solutions/105107/java-bfs-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Use Classic BFS and track sum and count and compute average at each level. Use int n = q.size(); double level_sum = 0.0; double level_average = level_sum/n; If you don't initialize the level sum as double, you get overflow.</t>
   </si>
 </sst>
 </file>
@@ -510,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,6 +703,23 @@
         <v>39</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -705,6 +731,7 @@
     <hyperlink ref="E8" r:id="rId7" xr:uid="{42FE07CF-7801-4118-ACF3-A522217316E3}"/>
     <hyperlink ref="E9" r:id="rId8" xr:uid="{595D1D3E-CBB9-48B8-9181-B017086C5309}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{057D83A8-3AF0-4D1C-A7EB-2D56EEF50066}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{15073174-E93D-497D-AE3E-3F33BCF6A93E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DD57C-F68F-48A2-8F08-4653A1D757B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260BB4D-0FA5-479A-920E-02D59E2C35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>Use Classic BFS and track sum and count and compute average at each level. Use int n = q.size(); double level_sum = 0.0; double level_average = level_sum/n; If you don't initialize the level sum as double, you get overflow.</t>
+  </si>
+  <si>
+    <t>530. Minimum Absolute Difference I BST</t>
+  </si>
+  <si>
+    <t>Track the global min and the previous value as global variables. Use Integer class so you can initialize pre to null. Perform DFS on the left side first, then set pre = root.val, then DFS on the right side.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/solutions/3770404/java-two-approaches-with-and-without-recursion/?envType=study-plan-v2&amp;envId=top-interview-150</t>
   </si>
 </sst>
 </file>
@@ -519,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D18:D19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,6 +729,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -732,6 +758,7 @@
     <hyperlink ref="E9" r:id="rId8" xr:uid="{595D1D3E-CBB9-48B8-9181-B017086C5309}"/>
     <hyperlink ref="E10" r:id="rId9" xr:uid="{057D83A8-3AF0-4D1C-A7EB-2D56EEF50066}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{15073174-E93D-497D-AE3E-3F33BCF6A93E}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{05FFDF6D-453D-44C6-B843-815284570E82}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1260BB4D-0FA5-479A-920E-02D59E2C35EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023EC39-AD2E-45CC-8D0F-DE3AD4876CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-absolute-difference-in-bst/solutions/3770404/java-two-approaches-with-and-without-recursion/?envType=study-plan-v2&amp;envId=top-interview-150</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/snakes-and-ladders/solutions/3092376/day-24-easiest-beginner-friendly-solution-o-n-2-time-and-o-n-2-space/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>909. Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>BFS, the crux is to find the coordinates after each move. Create a helper function. All grid values are -1 unless a snake or ladder.</t>
   </si>
 </sst>
 </file>
@@ -528,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +758,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{486949A4-FB9C-4B6B-AA9F-A075A50E333B}"/>
@@ -759,6 +788,7 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{057D83A8-3AF0-4D1C-A7EB-2D56EEF50066}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{15073174-E93D-497D-AE3E-3F33BCF6A93E}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{05FFDF6D-453D-44C6-B843-815284570E82}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{DD16DB2C-ED65-46F1-A3C3-466D75826780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1023EC39-AD2E-45CC-8D0F-DE3AD4876CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A873D5F-CE83-4DA5-A074-DAFEED1BD566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>Question</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>BFS, the crux is to find the coordinates after each move. Create a helper function. All grid values are -1 unless a snake or ladder.</t>
+  </si>
+  <si>
+    <t>162. Find Peak Element</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>Binary search but with custom check conditions. We partition based on the neighbors of the pivot value. An enum approach is the cleanest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-peak-element/solutions/1290642/intuition-behind-conditions-complete-explanation-diagram-binary-search/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>77. Combinations</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/combinations/solutions/3845903/ex-amazon-explains-a-solution-with-a-video-python-javascript-java-and-c/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Backtracking. Use combination.size() == k for the validity condition, then perform backtracking loop.</t>
   </si>
 </sst>
 </file>
@@ -540,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +797,40 @@
       </c>
       <c r="E13" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -789,6 +847,8 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{15073174-E93D-497D-AE3E-3F33BCF6A93E}"/>
     <hyperlink ref="E12" r:id="rId11" xr:uid="{05FFDF6D-453D-44C6-B843-815284570E82}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{DD16DB2C-ED65-46F1-A3C3-466D75826780}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{7EAA6900-7A17-4ABD-9769-16A48AB17D5F}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{81C64286-87A0-4E62-B1A0-6CE52255E96B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A873D5F-CE83-4DA5-A074-DAFEED1BD566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB786C-BEC2-4BC5-833F-E00C5029D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Question</t>
   </si>
@@ -213,6 +213,30 @@
   </si>
   <si>
     <t>Backtracking. Use combination.size() == k for the validity condition, then perform backtracking loop.</t>
+  </si>
+  <si>
+    <t>1732. Find the Highest Altitude</t>
+  </si>
+  <si>
+    <t>Prefix Sum</t>
+  </si>
+  <si>
+    <t>Maintain a global max and local max and update in a for loop.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/find-the-highest-altitude/solutions/3759475/java-solution-beats-100/?envType=study-plan-v2&amp;envId=leetcode-75 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/sort-list/solutions/46714/java-merge-sort-solution/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>148. Sort List</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Perform merge sort on a linked list.</t>
   </si>
 </sst>
 </file>
@@ -564,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="165.42578125" bestFit="1" customWidth="1"/>
@@ -831,6 +855,40 @@
       </c>
       <c r="E15" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -849,6 +907,8 @@
     <hyperlink ref="E13" r:id="rId12" xr:uid="{DD16DB2C-ED65-46F1-A3C3-466D75826780}"/>
     <hyperlink ref="E14" r:id="rId13" xr:uid="{7EAA6900-7A17-4ABD-9769-16A48AB17D5F}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{81C64286-87A0-4E62-B1A0-6CE52255E96B}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{15729C77-D197-4C00-80D4-DD4B232C6EDC}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{798F289D-ECAD-4214-97FA-B1A0031A978D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FB786C-BEC2-4BC5-833F-E00C5029D600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41208BC4-5553-4C4A-AE9B-C81E7BA332B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Question</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Perform merge sort on a linked list.</t>
+  </si>
+  <si>
+    <t>374. Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>Binary search but with function calls.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/guess-number-higher-or-lower/solutions/4284153/best-java-solution-beats-100-binary-search/ </t>
   </si>
 </sst>
 </file>
@@ -588,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,6 +898,23 @@
       </c>
       <c r="E17" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -909,6 +935,7 @@
     <hyperlink ref="E15" r:id="rId14" xr:uid="{81C64286-87A0-4E62-B1A0-6CE52255E96B}"/>
     <hyperlink ref="E16" r:id="rId15" xr:uid="{15729C77-D197-4C00-80D4-DD4B232C6EDC}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{798F289D-ECAD-4214-97FA-B1A0031A978D}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{D81A0A38-A2CA-4C8D-B1A5-26980C86B766}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41208BC4-5553-4C4A-AE9B-C81E7BA332B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DACC6-0E5E-40D3-8D96-205B2D0FED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Question</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/guess-number-higher-or-lower/solutions/4284153/best-java-solution-beats-100-binary-search/ </t>
+  </si>
+  <si>
+    <t>205. Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>The crux is that we care about the frequencies, not the character, and we use the respective mapping for each string. Remember that ASCII maps are int[256] (128 for standard, 256 for full range). Characters are essentially integers (based on ASCII values). Use if (map_s[s.charAt(i)] != map_t[t.charAt(i)]) return false; to check for inconsistency in previous mappings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/isomorphic-strings/solutions/3171737/well-explained-simple-java-runtime-1-ms-beats-94-7/ </t>
   </si>
 </sst>
 </file>
@@ -597,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,6 +924,23 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -936,6 +962,7 @@
     <hyperlink ref="E16" r:id="rId15" xr:uid="{15729C77-D197-4C00-80D4-DD4B232C6EDC}"/>
     <hyperlink ref="E17" r:id="rId16" xr:uid="{798F289D-ECAD-4214-97FA-B1A0031A978D}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{D81A0A38-A2CA-4C8D-B1A5-26980C86B766}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{DFABE8F8-9BCD-4DEF-B955-9B99CE599661}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48DACC6-0E5E-40D3-8D96-205B2D0FED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF1DDC-7B9C-456F-B3CC-952E367268B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Question</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/isomorphic-strings/solutions/3171737/well-explained-simple-java-runtime-1-ms-beats-94-7/ </t>
+  </si>
+  <si>
+    <t>71. Simplify Path</t>
+  </si>
+  <si>
+    <t>Stacks</t>
+  </si>
+  <si>
+    <t>Use 2 pointers and move in the string if the char at p2 == '/' or reachest the end, then make the word, and pop or add in stack based on conditions. Check for the first and last index of the string for "/". Handle each case appropriately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/simplify-path/solutions/3408251/java-code-beats-85-using-stack/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
   </si>
 </sst>
 </file>
@@ -606,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +953,23 @@
       </c>
       <c r="E19" s="2" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -963,6 +992,7 @@
     <hyperlink ref="E17" r:id="rId16" xr:uid="{798F289D-ECAD-4214-97FA-B1A0031A978D}"/>
     <hyperlink ref="E18" r:id="rId17" xr:uid="{D81A0A38-A2CA-4C8D-B1A5-26980C86B766}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{DFABE8F8-9BCD-4DEF-B955-9B99CE599661}"/>
+    <hyperlink ref="E20" r:id="rId19" xr:uid="{3E4DEB6C-C477-4A8E-BB19-FFC82DE990C3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEF1DDC-7B9C-456F-B3CC-952E367268B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D422C41-9808-49E2-85B2-DCF86633B4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
   <si>
     <t>Question</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/simplify-path/solutions/3408251/java-code-beats-85-using-stack/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>290. Word Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/word-pattern/solutions/2977740/simple-java-solution-with-using-hashmap/?envType=study-plan-v2&amp;envId=top-interview-150 </t>
+  </si>
+  <si>
+    <t>Split the words on " ". If the words.length != pattern.length() it is automatically false. Use 2 hashmaps to create the bijection. After populating, if the mapping in either direction is false, return false. The reason to use 2 hashmaps is to check for unique mappings in either direction.</t>
   </si>
 </sst>
 </file>
@@ -618,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,6 +979,23 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -993,6 +1019,7 @@
     <hyperlink ref="E18" r:id="rId17" xr:uid="{D81A0A38-A2CA-4C8D-B1A5-26980C86B766}"/>
     <hyperlink ref="E19" r:id="rId18" xr:uid="{DFABE8F8-9BCD-4DEF-B955-9B99CE599661}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{3E4DEB6C-C477-4A8E-BB19-FFC82DE990C3}"/>
+    <hyperlink ref="E21" r:id="rId20" xr:uid="{3C94BC40-6A17-421A-AB21-1602B733B2D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/java/TopInterview150.xlsx
+++ b/java/TopInterview150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP\Desktop\Home_folder\workspace\library\java\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D422C41-9808-49E2-85B2-DCF86633B4B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65386E4C-8005-48D1-9C5A-713D172B818D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>Question</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>Split the words on " ". If the words.length != pattern.length() it is automatically false. Use 2 hashmaps to create the bijection. After populating, if the mapping in either direction is false, return false. The reason to use 2 hashmaps is to check for unique mappings in either direction.</t>
+  </si>
+  <si>
+    <t>61. Rotate List</t>
+  </si>
+  <si>
+    <t>Use 2 passes. 1st to calculate the size of the list. The crux is to use k = k % size, then k = size - k; to deal with k &gt; size. The rotation logic is to first form a circular link at tail to the head, then move the curr pointer forward k times. Then set the head as curr.next (of the kth node), and set curr.next to null.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/solutions/4060553/beginner-explanation-with-diagram/?envType=study-plan-v2&amp;envId=top-interview-150</t>
   </si>
 </sst>
 </file>
@@ -627,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1005,23 @@
       </c>
       <c r="E21" s="2" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1020,6 +1046,7 @@
     <hyperlink ref="E19" r:id="rId18" xr:uid="{DFABE8F8-9BCD-4DEF-B955-9B99CE599661}"/>
     <hyperlink ref="E20" r:id="rId19" xr:uid="{3E4DEB6C-C477-4A8E-BB19-FFC82DE990C3}"/>
     <hyperlink ref="E21" r:id="rId20" xr:uid="{3C94BC40-6A17-421A-AB21-1602B733B2D4}"/>
+    <hyperlink ref="E22" r:id="rId21" xr:uid="{1956C67A-3500-4DC3-A780-F20F49085C4E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
